--- a/biology/Botanique/Aneilema/Aneilema.xlsx
+++ b/biology/Botanique/Aneilema/Aneilema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aneilema est un genre de plantes à fleur appartenant à la famille des Commelinaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces, variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (7 mai 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (7 mai 2019) :
 Aneilema acuminatum R. Br.
 Aneilema aequinoctiale (P. Beauv.) Loudon
 Aneilema alatum Koord.
@@ -576,7 +590,7 @@
 Aneilema welwitschii C.B. Clarke
 Aneilema woodii Faden
 Aneilema zebrinum Chiov. ex Chiarugi
-Selon Catalogue of Life                                   (7 mai 2019)[3] :
+Selon Catalogue of Life                                   (7 mai 2019) :
 Aneilema acuminatum R.Br.
 Aneilema aequinoctiale (P.Beauv.) G.Don
 Aneilema alatum Koord.
@@ -642,7 +656,7 @@
 Aneilema welwitschii C.B.Clarke
 Aneilema woodii Faden
 Aneilema zebrinum Chiov.
-Selon World Checklist of Selected Plant Families (WCSP)  (7 mai 2019)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (7 mai 2019) :
 Aneilema acuminatum R.Br. (1810)
 Aneilema aequinoctiale (P.Beauv.) G.Don (1830)
 Aneilema alatum Koord. (1912)
@@ -735,7 +749,7 @@
 Aneilema welwitschii C.B.Clarke (1881)
 Aneilema woodii Faden (1991)
 Aneilema zebrinum Chiov. (1951)
-Selon The Plant List            (7 mai 2019)[5] :
+Selon The Plant List            (7 mai 2019) :
 Aneilema acuminatum R.Br.
 Aneilema aequinoctiale (P.Beauv.) Loudon
 Aneilema alatum Koord.
@@ -798,7 +812,7 @@
 Aneilema welwitschii C.B.Clarke
 Aneilema woodii Faden
 Aneilema zebrinum Chiov. ex Chiarugi
-Selon Tropicos                                           (7 mai 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 mai 2019) (Attention liste brute contenant possiblement des synonymes) :
 Aneilema acuminatum Brown,R.
 Aneilema acutifolium Lauterb. &amp; K. Schum.
 Aneilema adhaerens Kunth
